--- a/Tagebuch/Tagebuch_Xiang.xlsx
+++ b/Tagebuch/Tagebuch_Xiang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Datum</t>
   </si>
@@ -59,6 +59,15 @@
   </si>
   <si>
     <t>zuhause</t>
+  </si>
+  <si>
+    <t>Mit XNA herumgespielt</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>Informationen gesammelt für die Programmierung der Spieloberfläche</t>
   </si>
 </sst>
 </file>
@@ -605,7 +614,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,22 +706,46 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="13"/>
+      <c r="A7" s="3">
+        <v>42277</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="13"/>
+      <c r="A8" s="17">
+        <v>42278</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="13"/>
+      <c r="A9" s="3">
+        <v>42285</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>

--- a/Tagebuch/Tagebuch_Xiang.xlsx
+++ b/Tagebuch/Tagebuch_Xiang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Informationen gesammelt für die Programmierung der Spieloberfläche</t>
+  </si>
+  <si>
+    <t>Feinplanung erweitert</t>
   </si>
 </sst>
 </file>
@@ -614,7 +617,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,10 +751,18 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="13"/>
+      <c r="A10" s="3">
+        <v>42291</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>

--- a/Tagebuch/Tagebuch_Xiang.xlsx
+++ b/Tagebuch/Tagebuch_Xiang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>Feinplanung erweitert</t>
+  </si>
+  <si>
+    <t>Hauptmenü</t>
+  </si>
+  <si>
+    <t>3 h</t>
+  </si>
+  <si>
+    <t>Schule/zuhause</t>
   </si>
 </sst>
 </file>
@@ -249,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -305,6 +314,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,14 +629,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="75.5703125" style="7" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.5703125" bestFit="1" customWidth="1"/>
@@ -709,22 +722,22 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>42277</v>
+      <c r="A7" s="20">
+        <v>42276</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>6</v>
+      <c r="D7" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>42278</v>
+      <c r="A8" s="3">
+        <v>42277</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>14</v>
@@ -737,11 +750,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>42285</v>
+      <c r="A9" s="17">
+        <v>42278</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>15</v>
@@ -752,10 +765,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>42291</v>
+        <v>42285</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>15</v>
@@ -765,10 +778,18 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="13"/>
+      <c r="A11" s="3">
+        <v>42291</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>

--- a/Tagebuch/Tagebuch_Xiang.xlsx
+++ b/Tagebuch/Tagebuch_Xiang.xlsx
@@ -73,13 +73,13 @@
     <t>Feinplanung erweitert</t>
   </si>
   <si>
-    <t>Hauptmenü</t>
-  </si>
-  <si>
     <t>3 h</t>
   </si>
   <si>
     <t>Schule/zuhause</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hauptmenü </t>
   </si>
 </sst>
 </file>
@@ -629,7 +629,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,13 +726,13 @@
         <v>42276</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">

--- a/Tagebuch/Tagebuch_Xiang.xlsx
+++ b/Tagebuch/Tagebuch_Xiang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Datum</t>
   </si>
@@ -59,27 +59,6 @@
   </si>
   <si>
     <t>zuhause</t>
-  </si>
-  <si>
-    <t>Mit XNA herumgespielt</t>
-  </si>
-  <si>
-    <t>1h</t>
-  </si>
-  <si>
-    <t>Informationen gesammelt für die Programmierung der Spieloberfläche</t>
-  </si>
-  <si>
-    <t>Feinplanung erweitert</t>
-  </si>
-  <si>
-    <t>3 h</t>
-  </si>
-  <si>
-    <t>Schule/zuhause</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hauptmenü </t>
   </si>
 </sst>
 </file>
@@ -258,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -314,9 +293,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,15 +605,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="75.5703125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.5703125" bestFit="1" customWidth="1"/>
@@ -722,74 +697,34 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
-        <v>42276</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>19</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>42277</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>6</v>
-      </c>
+      <c r="A8" s="17"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
-        <v>42278</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>6</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>42285</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>6</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>42291</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>6</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>

--- a/Tagebuch/Tagebuch_Xiang.xlsx
+++ b/Tagebuch/Tagebuch_Xiang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -59,6 +59,27 @@
   </si>
   <si>
     <t>zuhause</t>
+  </si>
+  <si>
+    <t>Mit XNA herumgespielt</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>Informationen gesammelt für die Programmierung der Spieloberfläche</t>
+  </si>
+  <si>
+    <t>Feinplanung erweitert</t>
+  </si>
+  <si>
+    <t>3 h</t>
+  </si>
+  <si>
+    <t>Schule/zuhause</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hauptmenü </t>
   </si>
 </sst>
 </file>
@@ -237,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -293,6 +314,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,14 +629,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="75.5703125" style="7" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.5703125" bestFit="1" customWidth="1"/>
@@ -697,34 +722,74 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="13"/>
+      <c r="A7" s="20">
+        <v>42276</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="13"/>
+      <c r="A8" s="3">
+        <v>42277</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="13"/>
+      <c r="A9" s="17">
+        <v>42278</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="13"/>
+      <c r="A10" s="3">
+        <v>42285</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="13"/>
+      <c r="A11" s="3">
+        <v>42291</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>

--- a/Tagebuch/Tagebuch_Xiang.xlsx
+++ b/Tagebuch/Tagebuch_Xiang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Datum</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t xml:space="preserve">Hauptmenü </t>
+  </si>
+  <si>
+    <t>21.10.10.2015</t>
+  </si>
+  <si>
+    <t>Pflichtenheft Kapitel 1</t>
   </si>
 </sst>
 </file>
@@ -309,14 +315,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,7 +635,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,14 +650,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="19"/>
+      <c r="D1" s="20"/>
       <c r="F1" s="16"/>
       <c r="G1" s="15"/>
     </row>
@@ -722,7 +728,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="18">
         <v>42276</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -792,10 +798,18 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="13"/>
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>

--- a/Tagebuch/Tagebuch_Xiang.xlsx
+++ b/Tagebuch/Tagebuch_Xiang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Datum</t>
   </si>
@@ -82,10 +82,10 @@
     <t xml:space="preserve">Hauptmenü </t>
   </si>
   <si>
-    <t>21.10.10.2015</t>
+    <t>Pflichtenheft Kapitel 1</t>
   </si>
   <si>
-    <t>Pflichtenheft Kapitel 1</t>
+    <t>Projektstrukturplan</t>
   </si>
 </sst>
 </file>
@@ -635,7 +635,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,11 +798,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
+      <c r="A12" s="3">
+        <v>42298</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>15</v>
@@ -812,10 +812,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="13"/>
+      <c r="A13" s="3">
+        <v>42299</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>

--- a/Tagebuch/Tagebuch_Xiang.xlsx
+++ b/Tagebuch/Tagebuch_Xiang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -85,7 +85,13 @@
     <t>Pflichtenheft Kapitel 1</t>
   </si>
   <si>
-    <t>Projektstrukturplan</t>
+    <t>Projektstrukturplan erstellt</t>
+  </si>
+  <si>
+    <t>Arbeitspaket zu Klimagebiete erstellt</t>
+  </si>
+  <si>
+    <t>1,5h</t>
   </si>
 </sst>
 </file>
@@ -635,7 +641,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,10 +832,18 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="13"/>
+      <c r="A14" s="3">
+        <v>42300</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>

--- a/Tagebuch/Tagebuch_Xiang.xlsx
+++ b/Tagebuch/Tagebuch_Xiang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Datum</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Feinplanung erweitert</t>
   </si>
   <si>
-    <t>3 h</t>
-  </si>
-  <si>
     <t>Schule/zuhause</t>
   </si>
   <si>
@@ -92,6 +89,15 @@
   </si>
   <si>
     <t>1,5h</t>
+  </si>
+  <si>
+    <t>Arbeitspaket zu Klimagebiete erweitert</t>
+  </si>
+  <si>
+    <t>20 Minuten</t>
+  </si>
+  <si>
+    <t>3h</t>
   </si>
 </sst>
 </file>
@@ -641,7 +647,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,13 +744,13 @@
         <v>42276</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -808,7 +814,7 @@
         <v>42298</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>15</v>
@@ -822,7 +828,7 @@
         <v>42299</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>11</v>
@@ -836,20 +842,28 @@
         <v>42300</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="13"/>
+      <c r="A15" s="3">
+        <v>42311</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>

--- a/Tagebuch/Tagebuch_Xiang.xlsx
+++ b/Tagebuch/Tagebuch_Xiang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>Datum</t>
   </si>
@@ -647,7 +647,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,10 +866,18 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="13"/>
+      <c r="A16" s="3">
+        <v>42313</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>

--- a/Tagebuch/Tagebuch_Xiang.xlsx
+++ b/Tagebuch/Tagebuch_Xiang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>Datum</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>3h</t>
+  </si>
+  <si>
+    <t>Kaktus gezeichnet</t>
+  </si>
+  <si>
+    <t>10 Minuten</t>
   </si>
 </sst>
 </file>
@@ -646,8 +652,8 @@
   <dimension ref="A1:G749"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,10 +886,18 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="13"/>
+      <c r="A17" s="3">
+        <v>42318</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>

--- a/Tagebuch/Tagebuch_Xiang.xlsx
+++ b/Tagebuch/Tagebuch_Xiang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>Datum</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>10 Minuten</t>
+  </si>
+  <si>
+    <t>30 Minuten</t>
+  </si>
+  <si>
+    <t>Zuhause</t>
+  </si>
+  <si>
+    <t>Sonnenaufgang Landschaft erstellt</t>
   </si>
 </sst>
 </file>
@@ -649,11 +658,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G749"/>
+  <dimension ref="A1:G750"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,27 +854,27 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>42300</v>
+        <v>42299</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>42311</v>
+        <v>42300</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>6</v>
@@ -873,13 +882,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>42313</v>
+        <v>42311</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>6</v>
@@ -887,23 +896,31 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>42318</v>
+        <v>42313</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="13"/>
+      <c r="A18" s="3">
+        <v>42318</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -5290,6 +5307,12 @@
       <c r="B749" s="6"/>
       <c r="C749" s="10"/>
       <c r="D749" s="13"/>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A750" s="3"/>
+      <c r="B750" s="6"/>
+      <c r="C750" s="10"/>
+      <c r="D750" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:D4"/>

--- a/Tagebuch/Tagebuch_Xiang.xlsx
+++ b/Tagebuch/Tagebuch_Xiang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>Datum</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>Sonnenaufgang Landschaft erstellt</t>
+  </si>
+  <si>
+    <t>XNA</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -662,7 +668,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,22 +929,46 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="13"/>
+      <c r="A19" s="17">
+        <v>42320</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="13"/>
+      <c r="A20" s="17">
+        <v>42326</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="13"/>
+      <c r="A21" s="3">
+        <v>42327</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>

--- a/Tagebuch/Tagebuch_Xiang.xlsx
+++ b/Tagebuch/Tagebuch_Xiang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>Datum</t>
   </si>
@@ -115,10 +115,13 @@
     <t>Sonnenaufgang Landschaft erstellt</t>
   </si>
   <si>
-    <t>XNA</t>
+    <t>/</t>
   </si>
   <si>
-    <t>/</t>
+    <t>XNA Flood Game (herumgespielt)</t>
+  </si>
+  <si>
+    <t>XNA random Game (herumgespielt)</t>
   </si>
 </sst>
 </file>
@@ -667,8 +670,8 @@
   <dimension ref="A1:G750"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,10 +936,10 @@
         <v>42320</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>18</v>
@@ -947,10 +950,10 @@
         <v>42326</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>6</v>
@@ -961,17 +964,19 @@
         <v>42327</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="3">
+        <v>42340</v>
+      </c>
       <c r="B22" s="6"/>
       <c r="C22" s="10"/>
       <c r="D22" s="13"/>

--- a/Tagebuch/Tagebuch_Xiang.xlsx
+++ b/Tagebuch/Tagebuch_Xiang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -118,10 +118,16 @@
     <t>/</t>
   </si>
   <si>
-    <t>XNA Flood Game (herumgespielt)</t>
+    <t>XNA Starting_with_XNA Programm</t>
   </si>
   <si>
-    <t>XNA random Game (herumgespielt)</t>
+    <t>XNA Flood Game, Testing things with XNA</t>
+  </si>
+  <si>
+    <t>XNA Flood Game, writing this program by example from my book</t>
+  </si>
+  <si>
+    <t>Präsentation</t>
   </si>
 </sst>
 </file>
@@ -671,7 +677,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,7 +942,7 @@
         <v>42320</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>32</v>
@@ -950,7 +956,7 @@
         <v>42326</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>32</v>
@@ -964,7 +970,7 @@
         <v>42327</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>32</v>
@@ -977,7 +983,9 @@
       <c r="A22" s="3">
         <v>42340</v>
       </c>
-      <c r="B22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="C22" s="10"/>
       <c r="D22" s="13"/>
     </row>

--- a/Tagebuch/Tagebuch_Xiang.xlsx
+++ b/Tagebuch/Tagebuch_Xiang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>Datum</t>
   </si>
@@ -127,7 +127,34 @@
     <t>XNA Flood Game, writing this program by example from my book</t>
   </si>
   <si>
-    <t>Präsentation</t>
+    <t>Für die Präsentation Prezi erstellt</t>
+  </si>
+  <si>
+    <t>Feinplanung angepasst, Folien für die Präsentationen erstellt</t>
+  </si>
+  <si>
+    <t>15 Minuten</t>
+  </si>
+  <si>
+    <t>Statuspräsentation präsentiert</t>
+  </si>
+  <si>
+    <t>Kurz besprochen wie die Präsentation ablaufen soll</t>
+  </si>
+  <si>
+    <t>25 Minuten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feinplanung ergänzt </t>
+  </si>
+  <si>
+    <t>30 Minten</t>
+  </si>
+  <si>
+    <t>Schule/Zuhause</t>
+  </si>
+  <si>
+    <t>Pflichtenheft weiter geschrieben</t>
   </si>
 </sst>
 </file>
@@ -673,11 +700,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G750"/>
+  <dimension ref="A1:G751"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,49 +1008,101 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>42340</v>
+        <v>42333</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="13"/>
+      <c r="C22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="13"/>
+      <c r="A23" s="3">
+        <v>42334</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="13"/>
+      <c r="A24" s="3">
+        <v>42340</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="13"/>
+      <c r="A25" s="3">
+        <v>42341</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="13"/>
+      <c r="A26" s="3">
+        <v>42347</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="13"/>
+      <c r="A27" s="3">
+        <v>42348</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="13"/>
+      <c r="A28" s="3">
+        <v>42353</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
@@ -5356,6 +5435,12 @@
       <c r="B750" s="6"/>
       <c r="C750" s="10"/>
       <c r="D750" s="13"/>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A751" s="3"/>
+      <c r="B751" s="6"/>
+      <c r="C751" s="10"/>
+      <c r="D751" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:D4"/>

--- a/Tagebuch/Tagebuch_Xiang.xlsx
+++ b/Tagebuch/Tagebuch_Xiang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
   <si>
     <t>Datum</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Pflichtenheft weiter geschrieben</t>
+  </si>
+  <si>
+    <t>Pflichtenheft Funktionen beschrieben und Schnittstellen definiert</t>
   </si>
 </sst>
 </file>
@@ -704,7 +707,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,10 +1108,18 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="13"/>
+      <c r="A29" s="3">
+        <v>42355</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>

--- a/Tagebuch/Tagebuch_Xiang.xlsx
+++ b/Tagebuch/Tagebuch_Xiang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
   <si>
     <t>Datum</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>Pflichtenheft Funktionen beschrieben und Schnittstellen definiert</t>
+  </si>
+  <si>
+    <t>Pflichtenheft verbessert</t>
+  </si>
+  <si>
+    <t>SIDI wichtige Bemerkungen, erklärt, zugehört</t>
   </si>
 </sst>
 </file>
@@ -706,8 +712,8 @@
   <dimension ref="A1:G751"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,16 +1128,30 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="13"/>
+      <c r="A30" s="3">
+        <v>42381</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="3">
+        <v>42382</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="13"/>
+      <c r="D31" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>

--- a/Tagebuch/Tagebuch_Xiang.xlsx
+++ b/Tagebuch/Tagebuch_Xiang.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
   <si>
     <t>Datum</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>SIDI wichtige Bemerkungen, erklärt, zugehört</t>
+  </si>
+  <si>
+    <t>Pflichtenheft, NW2 gelernt</t>
   </si>
 </sst>
 </file>
@@ -713,7 +716,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,16 +1151,26 @@
       <c r="B31" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="D31" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="13"/>
+      <c r="A32" s="3">
+        <v>42383</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>

--- a/Tagebuch/Tagebuch_Xiang.xlsx
+++ b/Tagebuch/Tagebuch_Xiang.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jinyang Xiang\Documents\GitHub\GrowIt\Tagebuch\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="9735"/>
   </bookViews>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
   <si>
     <t>Datum</t>
   </si>
@@ -167,6 +172,12 @@
   </si>
   <si>
     <t>Pflichtenheft, NW2 gelernt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,5h </t>
+  </si>
+  <si>
+    <t>Statuspräsentation gemacht</t>
   </si>
 </sst>
 </file>
@@ -407,7 +418,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,9 +434,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -463,9 +474,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -500,7 +511,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -535,7 +546,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -716,10 +727,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="75.5703125" style="7" customWidth="1"/>
@@ -1173,16 +1184,32 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="13"/>
+      <c r="A33" s="3">
+        <v>42390</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="13"/>
+      <c r="A34" s="3">
+        <v>42397</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>

--- a/Tagebuch/Tagebuch_Xiang.xlsx
+++ b/Tagebuch/Tagebuch_Xiang.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
   <si>
     <t>Datum</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Statuspräsentation gemacht</t>
+  </si>
+  <si>
+    <t>Gestartet zu Programmieren</t>
   </si>
 </sst>
 </file>
@@ -727,7 +730,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1212,10 +1215,18 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="13"/>
+      <c r="A35" s="3">
+        <v>42418</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>

--- a/Tagebuch/Tagebuch_Xiang.xlsx
+++ b/Tagebuch/Tagebuch_Xiang.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
   <si>
     <t>Datum</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>Gestartet zu Programmieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feinplanung </t>
+  </si>
+  <si>
+    <t>Hauptmenü gestartet zu programmieren</t>
   </si>
 </sst>
 </file>
@@ -730,7 +736,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,16 +1235,32 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="13"/>
+      <c r="A36" s="3">
+        <v>42423</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="13"/>
+      <c r="A37" s="3">
+        <v>42424</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>

--- a/Tagebuch/Tagebuch_Xiang.xlsx
+++ b/Tagebuch/Tagebuch_Xiang.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
   <si>
     <t>Datum</t>
   </si>
@@ -186,7 +186,16 @@
     <t xml:space="preserve">Feinplanung </t>
   </si>
   <si>
-    <t>Hauptmenü gestartet zu programmieren</t>
+    <t>Hauptmenü gestartet zu programmieren (MonoGame)</t>
+  </si>
+  <si>
+    <t>Hauptmenü mitgeholfen (Android Studio Java)</t>
+  </si>
+  <si>
+    <t>1h 10 Minuten</t>
+  </si>
+  <si>
+    <t>Hauptmenü research Information (MonoGame)</t>
   </si>
 </sst>
 </file>
@@ -736,14 +745,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="75.5703125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
@@ -1263,16 +1272,32 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="13"/>
+      <c r="A38" s="3">
+        <v>42425</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="13"/>
+      <c r="A39" s="3">
+        <v>42425</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>

--- a/Tagebuch/Tagebuch_Xiang.xlsx
+++ b/Tagebuch/Tagebuch_Xiang.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="63">
   <si>
     <t>Datum</t>
   </si>
@@ -196,6 +196,21 @@
   </si>
   <si>
     <t>Hauptmenü research Information (MonoGame)</t>
+  </si>
+  <si>
+    <t>1h 20 Minuten</t>
+  </si>
+  <si>
+    <t>1h 35 Minuten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programmiert am Prototyp </t>
+  </si>
+  <si>
+    <t>MonoGame am Prototyp</t>
+  </si>
+  <si>
+    <t>Am Prototyp in MonoGame weiterprogrammiert</t>
   </si>
 </sst>
 </file>
@@ -745,7 +760,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,22 +1315,46 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="13"/>
+      <c r="A40" s="3">
+        <v>42431</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="13"/>
+      <c r="A41" s="3">
+        <v>42432</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="13"/>
+      <c r="A42" s="3">
+        <v>42439</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>

--- a/Tagebuch/Tagebuch_Xiang.xlsx
+++ b/Tagebuch/Tagebuch_Xiang.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="64">
   <si>
     <t>Datum</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Am Prototyp in MonoGame weiterprogrammiert</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -760,7 +763,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,8 +1360,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="6"/>
+      <c r="A43" s="3">
+        <v>42445</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="C43" s="10"/>
       <c r="D43" s="13"/>
     </row>
